--- a/resultados/summary_results_smith.xlsx
+++ b/resultados/summary_results_smith.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0.sharepoint.com/sites/GrupodeTrabajodeJusto/Documentos compartidos/General/Routes_Barriers/resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="11_6B693AD6BB2D17971559B8E990106D48993464B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97295C2C-3ECC-4737-BBDF-A4E52E7CE977}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="11_6B693AD6BB2D17971559B8E990106D48993464B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4A48CCC-316A-4ACF-9A43-2ACFB506C2CE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,14 +197,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -228,8 +227,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -247,10 +245,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,7 +535,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="A1:Q10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,38 +550,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -596,7 +579,7 @@
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -611,7 +594,7 @@
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -626,7 +609,7 @@
       <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -638,463 +621,407 @@
       <c r="P2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="6"/>
+      <c r="Q2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>6</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>8.6</v>
       </c>
-      <c r="C3" s="13">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3" s="12">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>2.58</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>1.21</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <f>E3+F3</f>
         <v>3.79</v>
       </c>
-      <c r="H3" s="13">
-        <v>10</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="H3" s="12">
+        <v>10</v>
+      </c>
+      <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>16.309999999999999</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>1.26</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <f>J3+K3</f>
         <v>17.57</v>
       </c>
-      <c r="M3" s="13">
-        <v>10</v>
-      </c>
-      <c r="N3" s="8">
+      <c r="M3" s="12">
+        <v>10</v>
+      </c>
+      <c r="N3" s="7">
         <v>0.03</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <v>1512.68</v>
       </c>
       <c r="P3" s="1">
         <v>1.4</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <f>O3+P3</f>
         <v>1514.0800000000002</v>
       </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="8"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>12.7</v>
       </c>
-      <c r="C4" s="9">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="8">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>14.12</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>3.07</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <f t="shared" ref="G4:G10" si="0">E4+F4</f>
         <v>17.189999999999998</v>
       </c>
-      <c r="H4" s="9">
-        <v>10</v>
-      </c>
-      <c r="I4" s="8">
+      <c r="H4" s="8">
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>171.44</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>3.16</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <f t="shared" ref="L4:L10" si="1">J4+K4</f>
         <v>174.6</v>
       </c>
-      <c r="M4" s="9">
-        <v>10</v>
-      </c>
-      <c r="N4" s="8">
+      <c r="M4" s="8">
+        <v>10</v>
+      </c>
+      <c r="N4" s="7">
         <v>0.27</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>3600</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <v>3.56</v>
       </c>
-      <c r="Q4" s="10">
-        <f t="shared" ref="Q4:Q10" si="2">O4+P4</f>
+      <c r="Q4" s="9">
+        <f t="shared" ref="Q4:Q7" si="2">O4+P4</f>
         <v>3603.56</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="8"/>
+      <c r="Z4" s="7"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="6">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
         <v>18</v>
       </c>
-      <c r="C5" s="9">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="8">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>199.23</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>7.35</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>206.57999999999998</v>
       </c>
-      <c r="H5" s="9">
-        <v>10</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="H5" s="8">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7">
         <v>0.03</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>1453.59</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>7.55</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <f t="shared" si="1"/>
         <v>1461.1399999999999</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>5</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>0.35</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>3600</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <v>8.5</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <f t="shared" si="2"/>
         <v>3608.5</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="8"/>
+      <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>12</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>19.7</v>
       </c>
-      <c r="C6" s="9">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="C6" s="8">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
         <v>0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>149.49</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>10.119999999999999</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>159.61000000000001</v>
       </c>
-      <c r="H6" s="9">
-        <v>10</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="H6" s="8">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7">
         <v>0.09</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>3454.33</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>10.54</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <f t="shared" si="1"/>
         <v>3464.87</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>6</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>0.46</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>3600</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <v>12.46</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="9">
         <f t="shared" si="2"/>
         <v>3612.46</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="8"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>14</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>24.5</v>
       </c>
-      <c r="C7" s="9">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="8">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>374.8</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>23.53</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>398.33000000000004</v>
       </c>
-      <c r="H7" s="9">
-        <v>10</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="H7" s="8">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7">
         <v>0.11</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>3600</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>24.23</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <f t="shared" si="1"/>
         <v>3624.23</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>4</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>0.65</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>3600</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <v>26.56</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <f t="shared" si="2"/>
         <v>3626.56</v>
       </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="8"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>16</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>29.4</v>
       </c>
-      <c r="C8" s="9">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
         <v>0.01</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>2486.62</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>40.200000000000003</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>2526.8199999999997</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>8</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>0.16</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>3600</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>41.1</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <f t="shared" si="1"/>
         <v>3641.1</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>0</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="Q8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="8"/>
+      <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>18</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>32</v>
       </c>
-      <c r="C9" s="9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7">
         <v>0.03</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>3053.15</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>52.18</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>3105.33</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>7</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>0.21</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>3600</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>53.05</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <f t="shared" si="1"/>
         <v>3653.05</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>0</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="8"/>
+      <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1103,7 +1030,7 @@
       <c r="B10" s="4">
         <v>37</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>10</v>
       </c>
       <c r="D10" s="2">
@@ -1115,11 +1042,11 @@
       <c r="F10" s="2">
         <v>75.25</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>3115.31</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>6</v>
       </c>
       <c r="I10" s="2">
@@ -1131,11 +1058,11 @@
       <c r="K10" s="2">
         <v>80.03</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <f t="shared" si="1"/>
         <v>3680.03</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <v>0</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1147,465 +1074,80 @@
       <c r="P10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="8"/>
+      <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="Z11" s="7"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="8"/>
+      <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="Z13" s="7"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="Z14" s="7"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="8"/>
+      <c r="Z15" s="7"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="8"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="8"/>
+      <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="8"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="8"/>
+      <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="8"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="Z22" s="7"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="8"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="Z23" s="7"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="8"/>
+      <c r="Z24" s="7"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="8"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="Z25" s="7"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="8"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="Z26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1619,6 +1161,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="116ddbad-b67c-4622-b846-55da43670eb8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CC872E1270CB784E9B98D50896A839F6" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d843d1c7e7f025820150451ac71dab0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="116ddbad-b67c-4622-b846-55da43670eb8" xmlns:ns3="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7d841d9c1cdff30d97ae0bcf8819b27" ns2:_="" ns3:_="">
     <xsd:import namespace="116ddbad-b67c-4622-b846-55da43670eb8"/>
@@ -1855,28 +1417,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="116ddbad-b67c-4622-b846-55da43670eb8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{719601EB-6952-4B0D-ABAC-6158B7E22018}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{692FF2E4-C6FA-4D33-8F6F-BE957F1A9F9D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="116ddbad-b67c-4622-b846-55da43670eb8"/>
+    <ds:schemaRef ds:uri="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1888,5 +1437,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{692FF2E4-C6FA-4D33-8F6F-BE957F1A9F9D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{719601EB-6952-4B0D-ABAC-6158B7E22018}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="116ddbad-b67c-4622-b846-55da43670eb8"/>
+    <ds:schemaRef ds:uri="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>